--- a/Offline/BusinessManagement/CRM/Rahul_CRM.xlsx
+++ b/Offline/BusinessManagement/CRM/Rahul_CRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C832002E-3072-4485-844B-A56C117B9BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C667AC6B-D573-4EEC-B35D-9FAA169299AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="437" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="437" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prospects" sheetId="2" r:id="rId1"/>
@@ -1400,7 +1400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1557,7 +1557,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1952,11 +1951,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O497"/>
+  <dimension ref="A1:P497"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P165" sqref="P165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3048,7 +3047,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -3147,7 +3146,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -3179,8 +3178,9 @@
       <c r="O36" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36" s="11"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -3212,8 +3212,9 @@
       <c r="O37" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -3245,8 +3246,9 @@
       <c r="O38" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -3278,8 +3280,9 @@
       <c r="O39" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -3311,8 +3314,9 @@
       <c r="O40" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -3344,8 +3348,9 @@
       <c r="O41" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -3377,8 +3382,9 @@
       <c r="O42" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -3411,7 +3417,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -3444,7 +3450,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -3477,7 +3483,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -3510,7 +3516,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -3543,7 +3549,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -13034,6 +13040,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O160" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576" xr:uid="{2617CCBA-2CB2-454E-B651-BDA57A26DF3F}">
+      <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -13043,8 +13054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1703B3-076E-40BB-A643-6D0582148E8C}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13100,7 +13111,7 @@
       <c r="B5" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="11" t="s">
         <v>257</v>
       </c>
     </row>
@@ -13111,7 +13122,7 @@
       <c r="B6" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="11" t="s">
         <v>211</v>
       </c>
     </row>
@@ -13122,7 +13133,7 @@
       <c r="B7" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="11" t="s">
         <v>284</v>
       </c>
     </row>
@@ -13133,7 +13144,7 @@
       <c r="B8" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="11" t="s">
         <v>285</v>
       </c>
     </row>
@@ -13144,7 +13155,7 @@
       <c r="B9" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="11" t="s">
         <v>286</v>
       </c>
     </row>
@@ -13155,7 +13166,7 @@
       <c r="B10" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="11" t="s">
         <v>256</v>
       </c>
     </row>
@@ -13166,7 +13177,7 @@
       <c r="B11" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="11" t="s">
         <v>255</v>
       </c>
     </row>

--- a/Offline/BusinessManagement/CRM/Rahul_CRM.xlsx
+++ b/Offline/BusinessManagement/CRM/Rahul_CRM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1113E3FA-00F4-45FF-9370-3ABA914DDDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF0D0F3-0BB4-4A48-8038-723D5B1637AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="437" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Notes" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prospects!$A$1:$O$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prospects!$A$1:$O$159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,6 +84,8 @@
     <author>tc={E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}</author>
     <author>tc={BD936E28-6500-430E-896F-A137AE40CCEB}</author>
     <author>tc={FF826963-E66D-4675-BE00-0061E3C0FE87}</author>
+    <author>tc={6688DD1B-E8EA-494F-A88B-321A8C0C2316}</author>
+    <author>tc={FC7F6E60-534C-43E8-9142-136010B706D4}</author>
   </authors>
   <commentList>
     <comment ref="M62" authorId="0" shapeId="0" xr:uid="{B4F983C8-7CA2-499B-9BA2-EE1FF232C344}">
@@ -405,7 +407,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="M150" authorId="35" shapeId="0" xr:uid="{9F686F59-C29D-4D23-A297-DDD8C911F41F}">
+    <comment ref="M149" authorId="35" shapeId="0" xr:uid="{9F686F59-C29D-4D23-A297-DDD8C911F41F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -413,7 +415,7 @@
     He is a retired person and he is keen to study computer course. Needs to follow up  on 07-12-2023 (Thursday).</t>
       </text>
     </comment>
-    <comment ref="M152" authorId="36" shapeId="0" xr:uid="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
+    <comment ref="M151" authorId="36" shapeId="0" xr:uid="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -422,7 +424,7 @@
 Demo class by Bappadito</t>
       </text>
     </comment>
-    <comment ref="M153" authorId="37" shapeId="0" xr:uid="{2358E5BF-6CE9-4B18-A908-A65F44178D1C}">
+    <comment ref="M152" authorId="37" shapeId="0" xr:uid="{2358E5BF-6CE9-4B18-A908-A65F44178D1C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -430,7 +432,7 @@
     She is a working lady. Follow up date 05-12-2023.</t>
       </text>
     </comment>
-    <comment ref="M154" authorId="38" shapeId="0" xr:uid="{020F2CA3-F192-4B9F-9B7D-1B455CAC0BBB}">
+    <comment ref="M153" authorId="38" shapeId="0" xr:uid="{020F2CA3-F192-4B9F-9B7D-1B455CAC0BBB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -438,7 +440,7 @@
     His daughter studies in GD Birla in class IX.She needs coaching in Physics.</t>
       </text>
     </comment>
-    <comment ref="M155" authorId="39" shapeId="0" xr:uid="{C0727A5B-EA0D-417C-9E76-E2B8CDF1AB5A}">
+    <comment ref="M154" authorId="39" shapeId="0" xr:uid="{C0727A5B-EA0D-417C-9E76-E2B8CDF1AB5A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -447,7 +449,7 @@
 She needs to be followed up on 06-12-2023.</t>
       </text>
     </comment>
-    <comment ref="M156" authorId="40" shapeId="0" xr:uid="{59D2B255-7D2E-4587-B857-CF4F4991A1B9}">
+    <comment ref="M155" authorId="40" shapeId="0" xr:uid="{59D2B255-7D2E-4587-B857-CF4F4991A1B9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -455,7 +457,7 @@
     His son can give mock test</t>
       </text>
     </comment>
-    <comment ref="M157" authorId="41" shapeId="0" xr:uid="{E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}">
+    <comment ref="M156" authorId="41" shapeId="0" xr:uid="{E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -464,7 +466,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="M158" authorId="42" shapeId="0" xr:uid="{BD936E28-6500-430E-896F-A137AE40CCEB}">
+    <comment ref="M157" authorId="42" shapeId="0" xr:uid="{BD936E28-6500-430E-896F-A137AE40CCEB}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -477,7 +479,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="M160" authorId="43" shapeId="0" xr:uid="{FF826963-E66D-4675-BE00-0061E3C0FE87}">
+    <comment ref="M159" authorId="43" shapeId="0" xr:uid="{FF826963-E66D-4675-BE00-0061E3C0FE87}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -487,12 +489,29 @@
 Follow-up date: 07-12-2023.</t>
       </text>
     </comment>
+    <comment ref="M160" authorId="44" shapeId="0" xr:uid="{6688DD1B-E8EA-494F-A88B-321A8C0C2316}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Right now her son will give final exam in Feb 2024, hence we will followup on 1st March 2024</t>
+      </text>
+    </comment>
+    <comment ref="M161" authorId="45" shapeId="0" xr:uid="{FC7F6E60-534C-43E8-9142-136010B706D4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    She did not take interest to join the course.
+Next Follow-Up Date : 11-12-2023.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="318">
   <si>
     <t>Student Name</t>
   </si>
@@ -1133,12 +1152,6 @@
     <t>7449868584</t>
   </si>
   <si>
-    <t>Sathi</t>
-  </si>
-  <si>
-    <t>MS OFFICE &amp; Spoken English</t>
-  </si>
-  <si>
     <t>School Name</t>
   </si>
   <si>
@@ -1443,6 +1456,15 @@
   </si>
   <si>
     <t>STD X</t>
+  </si>
+  <si>
+    <t>Rina Dey Ganguly</t>
+  </si>
+  <si>
+    <t>Commerce All Subjects ISC</t>
+  </si>
+  <si>
+    <t>Sreya Naskar</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1737,24 +1759,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1764,9 +1774,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1782,6 +1789,18 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2213,31 +2232,31 @@
     <text xml:space="preserve">All Subjects
 </text>
   </threadedComment>
-  <threadedComment ref="M150" dT="2023-12-05T07:55:10.74" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{9F686F59-C29D-4D23-A297-DDD8C911F41F}">
+  <threadedComment ref="M149" dT="2023-12-05T07:55:10.74" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{9F686F59-C29D-4D23-A297-DDD8C911F41F}">
     <text>He is a retired person and he is keen to study computer course. Needs to follow up  on 07-12-2023 (Thursday).</text>
   </threadedComment>
-  <threadedComment ref="M152" dT="2023-12-04T08:10:56.08" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
+  <threadedComment ref="M151" dT="2023-12-04T08:10:56.08" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
     <text>Student is interested in vehicles. We can show robotics vehicles by Bappadito.
 Demo class by Bappadito</text>
   </threadedComment>
-  <threadedComment ref="M153" dT="2023-12-05T06:38:50.42" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{2358E5BF-6CE9-4B18-A908-A65F44178D1C}">
+  <threadedComment ref="M152" dT="2023-12-05T06:38:50.42" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{2358E5BF-6CE9-4B18-A908-A65F44178D1C}">
     <text>She is a working lady. Follow up date 05-12-2023.</text>
   </threadedComment>
-  <threadedComment ref="M154" dT="2023-12-04T11:40:17.93" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{020F2CA3-F192-4B9F-9B7D-1B455CAC0BBB}">
+  <threadedComment ref="M153" dT="2023-12-04T11:40:17.93" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{020F2CA3-F192-4B9F-9B7D-1B455CAC0BBB}">
     <text>His daughter studies in GD Birla in class IX.She needs coaching in Physics.</text>
   </threadedComment>
-  <threadedComment ref="M155" dT="2023-12-04T12:54:51.83" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{C0727A5B-EA0D-417C-9E76-E2B8CDF1AB5A}">
+  <threadedComment ref="M154" dT="2023-12-04T12:54:51.83" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{C0727A5B-EA0D-417C-9E76-E2B8CDF1AB5A}">
     <text>She will come to our institute on Thursday 07-12-2023.
 She needs to be followed up on 06-12-2023.</text>
   </threadedComment>
-  <threadedComment ref="M156" dT="2023-12-06T05:39:59.54" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{59D2B255-7D2E-4587-B857-CF4F4991A1B9}">
+  <threadedComment ref="M155" dT="2023-12-06T05:39:59.54" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{59D2B255-7D2E-4587-B857-CF4F4991A1B9}">
     <text>His son can give mock test</text>
   </threadedComment>
-  <threadedComment ref="M157" dT="2023-12-05T07:24:15.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}">
+  <threadedComment ref="M156" dT="2023-12-05T07:24:15.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}">
     <text xml:space="preserve">He told to call on 06-12-2023 at 3 PM.
 </text>
   </threadedComment>
-  <threadedComment ref="M158" dT="2023-12-05T11:05:14.61" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{BD936E28-6500-430E-896F-A137AE40CCEB}">
+  <threadedComment ref="M157" dT="2023-12-05T11:05:14.61" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{BD936E28-6500-430E-896F-A137AE40CCEB}">
     <text xml:space="preserve">Parijat Haldar is available on Monday, Tuesday &amp; Friday from 4 PM to attend class. 
 He stays near highland park.
 We need to give a demo class to him. If his guardian is satisfied then he will attend the chemistry class also. 
@@ -2245,21 +2264,28 @@
 On 12/12/2023 we will give a maths demo class 
 </text>
   </threadedComment>
-  <threadedComment ref="M160" dT="2023-12-07T07:52:16.88" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{FF826963-E66D-4675-BE00-0061E3C0FE87}">
+  <threadedComment ref="M159" dT="2023-12-07T07:52:16.88" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{FF826963-E66D-4675-BE00-0061E3C0FE87}">
     <text>He wants to study Maths &amp; Reasoning for competitive exams.
 We need to tell him the course fee.
 Follow-up date: 07-12-2023.</text>
+  </threadedComment>
+  <threadedComment ref="M160" dT="2023-12-08T09:32:06.09" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{6688DD1B-E8EA-494F-A88B-321A8C0C2316}">
+    <text>Right now her son will give final exam in Feb 2024, hence we will followup on 1st March 2024</text>
+  </threadedComment>
+  <threadedComment ref="M161" dT="2023-12-08T07:38:28.78" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{FC7F6E60-534C-43E8-9142-136010B706D4}">
+    <text>She did not take interest to join the course.
+Next Follow-Up Date : 11-12-2023.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O495"/>
+  <dimension ref="A1:O494"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M160" sqref="M160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2273,7 +2299,7 @@
     <col min="7" max="7" width="22.21875" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.109375" style="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="29" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" style="30" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="30" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.21875" style="29" customWidth="1"/>
@@ -2286,10 +2312,10 @@
         <v>103</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2304,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -2316,7 +2342,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>185</v>
@@ -2358,7 +2384,7 @@
         <v>205</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2391,7 +2417,7 @@
         <v>205</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2424,7 +2450,7 @@
         <v>205</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2457,7 +2483,7 @@
         <v>205</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2490,7 +2516,7 @@
         <v>205</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2523,7 +2549,7 @@
         <v>205</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -2556,7 +2582,7 @@
         <v>205</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2589,7 +2615,7 @@
         <v>205</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2622,7 +2648,7 @@
         <v>205</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2655,7 +2681,7 @@
         <v>205</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2688,7 +2714,7 @@
         <v>205</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2721,7 +2747,7 @@
         <v>205</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2754,7 +2780,7 @@
         <v>205</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -2787,7 +2813,7 @@
         <v>205</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -2820,7 +2846,7 @@
         <v>205</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -2853,7 +2879,7 @@
         <v>205</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -2886,7 +2912,7 @@
         <v>205</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -2919,7 +2945,7 @@
         <v>205</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -2952,7 +2978,7 @@
         <v>205</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -2985,7 +3011,7 @@
         <v>205</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -3018,7 +3044,7 @@
         <v>205</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -3051,7 +3077,7 @@
         <v>205</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -3084,7 +3110,7 @@
         <v>205</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -3117,7 +3143,7 @@
         <v>205</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -3150,7 +3176,7 @@
         <v>205</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -3183,7 +3209,7 @@
         <v>205</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -3216,7 +3242,7 @@
         <v>205</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -3249,7 +3275,7 @@
         <v>205</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -3282,7 +3308,7 @@
         <v>205</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -3315,7 +3341,7 @@
         <v>205</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -3348,7 +3374,7 @@
         <v>205</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -3381,7 +3407,7 @@
         <v>205</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -3414,7 +3440,7 @@
         <v>205</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -3447,7 +3473,7 @@
         <v>205</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -3480,7 +3506,7 @@
         <v>205</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -3513,7 +3539,7 @@
         <v>205</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -3546,7 +3572,7 @@
         <v>205</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -3579,7 +3605,7 @@
         <v>205</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -3612,7 +3638,7 @@
         <v>205</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -3645,7 +3671,7 @@
         <v>205</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -3678,7 +3704,7 @@
         <v>205</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -3711,7 +3737,7 @@
         <v>205</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -3744,7 +3770,7 @@
         <v>205</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -3777,7 +3803,7 @@
         <v>205</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -3810,7 +3836,7 @@
         <v>205</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -3843,7 +3869,7 @@
         <v>205</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -3876,7 +3902,7 @@
         <v>205</v>
       </c>
       <c r="O48" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -3909,7 +3935,7 @@
         <v>205</v>
       </c>
       <c r="O49" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -3942,7 +3968,7 @@
         <v>205</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -3975,7 +4001,7 @@
         <v>205</v>
       </c>
       <c r="O51" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -4008,7 +4034,7 @@
         <v>205</v>
       </c>
       <c r="O52" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -4041,7 +4067,7 @@
         <v>205</v>
       </c>
       <c r="O53" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -4074,7 +4100,7 @@
         <v>205</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -4107,7 +4133,7 @@
         <v>205</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -4140,7 +4166,7 @@
         <v>205</v>
       </c>
       <c r="O56" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -4173,7 +4199,7 @@
         <v>205</v>
       </c>
       <c r="O57" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -4206,7 +4232,7 @@
         <v>205</v>
       </c>
       <c r="O58" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -4233,7 +4259,7 @@
         <v>205</v>
       </c>
       <c r="O59" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -4264,7 +4290,7 @@
         <v>205</v>
       </c>
       <c r="O60" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -4295,7 +4321,7 @@
         <v>205</v>
       </c>
       <c r="O61" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -4322,7 +4348,7 @@
       </c>
       <c r="J62" s="39"/>
       <c r="K62" s="39" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L62" s="39"/>
       <c r="M62" s="39"/>
@@ -4359,7 +4385,7 @@
         <v>205</v>
       </c>
       <c r="O63" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -4388,7 +4414,7 @@
         <v>205</v>
       </c>
       <c r="O64" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -4415,7 +4441,7 @@
         <v>205</v>
       </c>
       <c r="O65" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -4444,7 +4470,7 @@
         <v>205</v>
       </c>
       <c r="O66" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -4475,7 +4501,7 @@
         <v>205</v>
       </c>
       <c r="O67" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -4504,7 +4530,7 @@
         <v>205</v>
       </c>
       <c r="O68" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -4533,7 +4559,7 @@
         <v>205</v>
       </c>
       <c r="O69" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -4562,7 +4588,7 @@
         <v>205</v>
       </c>
       <c r="O70" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -4591,7 +4617,7 @@
         <v>205</v>
       </c>
       <c r="O71" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -4622,7 +4648,7 @@
         <v>205</v>
       </c>
       <c r="O72" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -4651,7 +4677,7 @@
         <v>205</v>
       </c>
       <c r="O73" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -4678,19 +4704,19 @@
       <c r="I74" s="33"/>
       <c r="J74" s="33"/>
       <c r="K74" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L74" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M74" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N74" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O74" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -4721,13 +4747,13 @@
         <v>127</v>
       </c>
       <c r="M75" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N75" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O75" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -4758,13 +4784,13 @@
         <v>128</v>
       </c>
       <c r="M76" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N76" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O76" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -4793,13 +4819,13 @@
       <c r="K77" s="33"/>
       <c r="L77" s="33"/>
       <c r="M77" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N77" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O77" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -4828,13 +4854,13 @@
       <c r="K78" s="33"/>
       <c r="L78" s="33"/>
       <c r="M78" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N78" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O78" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -4863,13 +4889,13 @@
       <c r="K79" s="33"/>
       <c r="L79" s="33"/>
       <c r="M79" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N79" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O79" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -4898,13 +4924,13 @@
       <c r="K80" s="33"/>
       <c r="L80" s="33"/>
       <c r="M80" s="33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N80" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O80" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -4937,7 +4963,7 @@
         <v>205</v>
       </c>
       <c r="O81" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -4966,13 +4992,13 @@
       <c r="K82" s="33"/>
       <c r="L82" s="33"/>
       <c r="M82" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N82" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O82" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -5001,13 +5027,13 @@
       <c r="K83" s="33"/>
       <c r="L83" s="33"/>
       <c r="M83" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N83" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O83" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -5036,7 +5062,7 @@
       <c r="K84" s="33"/>
       <c r="L84" s="33"/>
       <c r="M84" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N84" s="35" t="s">
         <v>205</v>
@@ -5071,13 +5097,13 @@
       <c r="K85" s="33"/>
       <c r="L85" s="33"/>
       <c r="M85" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N85" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O85" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -5106,13 +5132,13 @@
       <c r="K86" s="33"/>
       <c r="L86" s="33"/>
       <c r="M86" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N86" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O86" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -5141,13 +5167,13 @@
       <c r="K87" s="33"/>
       <c r="L87" s="33"/>
       <c r="M87" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N87" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O87" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -5176,7 +5202,7 @@
       <c r="K88" s="33"/>
       <c r="L88" s="33"/>
       <c r="M88" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N88" s="35" t="s">
         <v>205</v>
@@ -5211,13 +5237,13 @@
       <c r="K89" s="33"/>
       <c r="L89" s="33"/>
       <c r="M89" s="33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N89" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O89" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -5246,13 +5272,13 @@
       <c r="K90" s="33"/>
       <c r="L90" s="33"/>
       <c r="M90" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N90" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O90" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -5281,13 +5307,13 @@
       <c r="K91" s="33"/>
       <c r="L91" s="33"/>
       <c r="M91" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N91" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O91" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -5316,13 +5342,13 @@
       <c r="K92" s="33"/>
       <c r="L92" s="33"/>
       <c r="M92" s="33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N92" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O92" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -5351,13 +5377,13 @@
       <c r="K93" s="33"/>
       <c r="L93" s="33"/>
       <c r="M93" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N93" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O93" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -5386,13 +5412,13 @@
       <c r="K94" s="33"/>
       <c r="L94" s="33"/>
       <c r="M94" s="33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N94" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O94" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -5421,13 +5447,13 @@
       <c r="K95" s="33"/>
       <c r="L95" s="33"/>
       <c r="M95" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N95" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O95" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -5456,13 +5482,13 @@
       <c r="K96" s="33"/>
       <c r="L96" s="33"/>
       <c r="M96" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N96" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O96" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
@@ -5495,7 +5521,7 @@
         <v>205</v>
       </c>
       <c r="O97" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
@@ -5528,7 +5554,7 @@
         <v>205</v>
       </c>
       <c r="O98" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -5557,13 +5583,13 @@
       <c r="K99" s="33"/>
       <c r="L99" s="33"/>
       <c r="M99" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N99" s="35" t="s">
         <v>205</v>
       </c>
       <c r="O99" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -5596,7 +5622,7 @@
         <v>205</v>
       </c>
       <c r="O100" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -5629,7 +5655,7 @@
         <v>205</v>
       </c>
       <c r="O101" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -5662,7 +5688,7 @@
         <v>205</v>
       </c>
       <c r="O102" s="41" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -5695,7 +5721,7 @@
         <v>205</v>
       </c>
       <c r="O103" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
@@ -5713,7 +5739,7 @@
       </c>
       <c r="E104" s="43"/>
       <c r="F104" s="39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G104" s="39">
         <v>9830826860</v>
@@ -5730,7 +5756,7 @@
         <v>205</v>
       </c>
       <c r="O104" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -5763,7 +5789,7 @@
         <v>205</v>
       </c>
       <c r="O105" s="41" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -5796,7 +5822,7 @@
         <v>205</v>
       </c>
       <c r="O106" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -5829,7 +5855,7 @@
         <v>205</v>
       </c>
       <c r="O107" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -5862,7 +5888,7 @@
         <v>205</v>
       </c>
       <c r="O108" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -5895,7 +5921,7 @@
         <v>205</v>
       </c>
       <c r="O109" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -5928,7 +5954,7 @@
         <v>205</v>
       </c>
       <c r="O110" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -5955,17 +5981,17 @@
       </c>
       <c r="J111" s="39"/>
       <c r="K111" s="39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L111" s="39" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M111" s="39"/>
       <c r="N111" s="41" t="s">
         <v>205</v>
       </c>
       <c r="O111" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -5998,7 +6024,7 @@
         <v>205</v>
       </c>
       <c r="O112" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
@@ -6031,7 +6057,7 @@
         <v>205</v>
       </c>
       <c r="O113" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
@@ -6064,7 +6090,7 @@
         <v>205</v>
       </c>
       <c r="O114" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
@@ -6097,7 +6123,7 @@
         <v>205</v>
       </c>
       <c r="O115" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
@@ -6124,17 +6150,17 @@
       </c>
       <c r="J116" s="39"/>
       <c r="K116" s="39" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L116" s="39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M116" s="39"/>
       <c r="N116" s="41" t="s">
         <v>205</v>
       </c>
       <c r="O116" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
@@ -6161,17 +6187,17 @@
       </c>
       <c r="J117" s="39"/>
       <c r="K117" s="39" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L117" s="39" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M117" s="39"/>
       <c r="N117" s="41" t="s">
         <v>205</v>
       </c>
       <c r="O117" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
@@ -6185,7 +6211,7 @@
         <v>45267</v>
       </c>
       <c r="D118" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E118" s="39">
         <v>8240581466</v>
@@ -6199,14 +6225,14 @@
       <c r="J118" s="39"/>
       <c r="K118" s="39"/>
       <c r="L118" s="39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M118" s="39"/>
       <c r="N118" s="41" t="s">
         <v>205</v>
       </c>
       <c r="O118" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
@@ -6239,7 +6265,7 @@
         <v>205</v>
       </c>
       <c r="O119" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
@@ -6253,7 +6279,7 @@
         <v>45267</v>
       </c>
       <c r="D120" s="39" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E120" s="39">
         <v>6291578892</v>
@@ -6266,7 +6292,7 @@
       </c>
       <c r="J120" s="39"/>
       <c r="K120" s="39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L120" s="39"/>
       <c r="M120" s="39"/>
@@ -6274,7 +6300,7 @@
         <v>205</v>
       </c>
       <c r="O120" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
@@ -6288,7 +6314,7 @@
         <v>45267</v>
       </c>
       <c r="D121" s="39" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E121" s="39">
         <v>6289714787</v>
@@ -6302,14 +6328,14 @@
       <c r="J121" s="39"/>
       <c r="K121" s="39"/>
       <c r="L121" s="39" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M121" s="39"/>
       <c r="N121" s="41" t="s">
         <v>205</v>
       </c>
       <c r="O121" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
@@ -6336,7 +6362,7 @@
       </c>
       <c r="J122" s="39"/>
       <c r="K122" s="39" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L122" s="39"/>
       <c r="M122" s="39"/>
@@ -6344,7 +6370,7 @@
         <v>205</v>
       </c>
       <c r="O122" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
@@ -6410,7 +6436,7 @@
         <v>205</v>
       </c>
       <c r="O124" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
@@ -6443,7 +6469,7 @@
         <v>205</v>
       </c>
       <c r="O125" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
@@ -6476,7 +6502,7 @@
         <v>205</v>
       </c>
       <c r="O126" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -6509,7 +6535,7 @@
         <v>205</v>
       </c>
       <c r="O127" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -6542,11 +6568,11 @@
         <v>205</v>
       </c>
       <c r="O128" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A129" s="59">
+      <c r="A129" s="6">
         <v>128</v>
       </c>
       <c r="B129" s="20">
@@ -6573,11 +6599,11 @@
       <c r="M129" s="15"/>
       <c r="N129" s="23"/>
       <c r="O129" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A130" s="59">
+      <c r="A130" s="6">
         <v>129</v>
       </c>
       <c r="B130" s="20">
@@ -6602,7 +6628,7 @@
         <v>209</v>
       </c>
       <c r="K130" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L130" s="15" t="s">
         <v>128</v>
@@ -6616,7 +6642,7 @@
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A131" s="59">
+      <c r="A131" s="6">
         <v>130</v>
       </c>
       <c r="B131" s="20">
@@ -6641,7 +6667,7 @@
         <v>208</v>
       </c>
       <c r="K131" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L131" s="15"/>
       <c r="M131" s="15"/>
@@ -6653,7 +6679,7 @@
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A132" s="59">
+      <c r="A132" s="6">
         <v>131</v>
       </c>
       <c r="B132" s="20">
@@ -6689,19 +6715,19 @@
         <v>206</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A133" s="59">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A133" s="6">
         <v>132</v>
       </c>
-      <c r="B133" s="61">
+      <c r="B133" s="57">
         <v>45246</v>
       </c>
-      <c r="C133" s="61">
+      <c r="C133" s="57">
         <v>45246</v>
       </c>
-      <c r="D133" s="62"/>
-      <c r="E133" s="60"/>
-      <c r="F133" s="63" t="s">
+      <c r="D133" s="58"/>
+      <c r="E133" s="56"/>
+      <c r="F133" s="56" t="s">
         <v>192</v>
       </c>
       <c r="G133" s="24" t="s">
@@ -6714,20 +6740,20 @@
       <c r="J133" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="K133" s="15" t="s">
+      <c r="K133" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="L133" s="15"/>
-      <c r="M133" s="15"/>
-      <c r="N133" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="O133" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A134" s="59">
+      <c r="L133" s="58"/>
+      <c r="M133" s="58"/>
+      <c r="N133" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="O133" s="58" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A134" s="6">
         <v>133</v>
       </c>
       <c r="B134" s="20">
@@ -6737,11 +6763,11 @@
         <v>45246</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E134" s="18"/>
       <c r="F134" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" s="24" t="s">
         <v>194</v>
@@ -6753,20 +6779,20 @@
       <c r="J134" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="K134" s="15" t="s">
+      <c r="K134" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="L134" s="15"/>
-      <c r="M134" s="15"/>
-      <c r="N134" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="O134" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A135" s="59">
+      <c r="L134" s="58"/>
+      <c r="M134" s="58"/>
+      <c r="N134" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="O134" s="58" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A135" s="6">
         <v>134</v>
       </c>
       <c r="B135" s="20">
@@ -6790,20 +6816,20 @@
       <c r="J135" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="K135" s="15" t="s">
+      <c r="K135" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="L135" s="15"/>
-      <c r="M135" s="15"/>
-      <c r="N135" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="O135" s="15" t="s">
-        <v>252</v>
+      <c r="L135" s="58"/>
+      <c r="M135" s="58"/>
+      <c r="N135" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="O135" s="58" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A136" s="59">
+      <c r="A136" s="6">
         <v>135</v>
       </c>
       <c r="B136" s="20">
@@ -6832,11 +6858,11 @@
         <v>205</v>
       </c>
       <c r="O136" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A137" s="59">
+      <c r="A137" s="6">
         <v>136</v>
       </c>
       <c r="B137" s="46">
@@ -6861,11 +6887,11 @@
         <v>205</v>
       </c>
       <c r="O137" s="51" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A138" s="59">
+      <c r="A138" s="6">
         <v>137</v>
       </c>
       <c r="B138" s="46">
@@ -6890,79 +6916,79 @@
         <v>205</v>
       </c>
       <c r="O138" s="51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="59">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="6">
         <v>138</v>
       </c>
       <c r="B139" s="20">
         <v>45254</v>
       </c>
-      <c r="C139" s="20">
+      <c r="C139" s="57">
         <v>45254</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="D139" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="E139" s="18"/>
-      <c r="F139" s="17"/>
-      <c r="G139" s="22" t="s">
+      <c r="E139" s="56"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="H139" s="22"/>
-      <c r="I139" s="15"/>
+      <c r="H139" s="64"/>
+      <c r="I139" s="58"/>
       <c r="J139" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="K139" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="L139" s="15" t="s">
+      <c r="K139" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="L139" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="M139" s="15"/>
-      <c r="N139" s="23" t="s">
+      <c r="M139" s="58"/>
+      <c r="N139" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="O139" s="15" t="s">
+      <c r="O139" s="58" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A140" s="59">
+      <c r="A140" s="6">
         <v>139</v>
       </c>
-      <c r="B140" s="20">
+      <c r="B140" s="7">
         <v>45254</v>
       </c>
-      <c r="C140" s="20">
+      <c r="C140" s="7">
         <v>45254</v>
       </c>
-      <c r="D140" s="17"/>
+      <c r="D140" s="17" t="s">
+        <v>215</v>
+      </c>
       <c r="E140" s="18"/>
       <c r="F140" s="8"/>
-      <c r="G140" s="24"/>
+      <c r="G140" s="24" t="s">
+        <v>214</v>
+      </c>
       <c r="H140" s="24"/>
       <c r="I140" s="15"/>
-      <c r="J140" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K140" s="17" t="s">
-        <v>214</v>
-      </c>
+      <c r="J140" s="15"/>
+      <c r="K140" s="17"/>
       <c r="L140" s="17"/>
       <c r="M140" s="15"/>
       <c r="N140" s="23" t="s">
         <v>205</v>
       </c>
       <c r="O140" s="15" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A141" s="59">
+      <c r="A141" s="6">
         <v>140</v>
       </c>
       <c r="B141" s="7">
@@ -6971,29 +6997,33 @@
       <c r="C141" s="7">
         <v>45254</v>
       </c>
-      <c r="D141" s="17" t="s">
+      <c r="D141" s="17"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G141" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="E141" s="18"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="H141" s="24"/>
+      <c r="H141" s="24" t="s">
+        <v>218</v>
+      </c>
       <c r="I141" s="15"/>
       <c r="J141" s="15"/>
-      <c r="K141" s="17"/>
+      <c r="K141" s="17" t="s">
+        <v>220</v>
+      </c>
       <c r="L141" s="17"/>
       <c r="M141" s="15"/>
       <c r="N141" s="23" t="s">
         <v>205</v>
       </c>
       <c r="O141" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A142" s="59">
+      <c r="A142" s="6">
         <v>141</v>
       </c>
       <c r="B142" s="7">
@@ -7002,21 +7032,19 @@
       <c r="C142" s="7">
         <v>45254</v>
       </c>
-      <c r="D142" s="17"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G142" s="24" t="s">
+      <c r="D142" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H142" s="24" t="s">
-        <v>220</v>
-      </c>
+      <c r="E142" s="18">
+        <v>9433635023</v>
+      </c>
+      <c r="F142" s="8"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="24"/>
       <c r="I142" s="15"/>
       <c r="J142" s="15"/>
       <c r="K142" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L142" s="17"/>
       <c r="M142" s="15"/>
@@ -7024,11 +7052,11 @@
         <v>205</v>
       </c>
       <c r="O142" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A143" s="59">
+      <c r="A143" s="6">
         <v>142</v>
       </c>
       <c r="B143" s="7">
@@ -7038,30 +7066,28 @@
         <v>45254</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E143" s="18">
-        <v>9433635023</v>
+        <v>6291747759</v>
       </c>
       <c r="F143" s="8"/>
       <c r="G143" s="24"/>
       <c r="H143" s="24"/>
       <c r="I143" s="15"/>
       <c r="J143" s="15"/>
-      <c r="K143" s="17" t="s">
-        <v>223</v>
-      </c>
+      <c r="K143" s="17"/>
       <c r="L143" s="17"/>
       <c r="M143" s="15"/>
       <c r="N143" s="23" t="s">
         <v>205</v>
       </c>
       <c r="O143" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A144" s="59">
+      <c r="A144" s="6">
         <v>143</v>
       </c>
       <c r="B144" s="7">
@@ -7070,29 +7096,33 @@
       <c r="C144" s="7">
         <v>45254</v>
       </c>
-      <c r="D144" s="17" t="s">
+      <c r="D144" s="17"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G144" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="E144" s="18">
-        <v>6291747759</v>
-      </c>
-      <c r="F144" s="8"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="24"/>
+      <c r="H144" s="24" t="s">
+        <v>226</v>
+      </c>
       <c r="I144" s="15"/>
       <c r="J144" s="15"/>
-      <c r="K144" s="17"/>
+      <c r="K144" s="17" t="s">
+        <v>225</v>
+      </c>
       <c r="L144" s="17"/>
       <c r="M144" s="15"/>
       <c r="N144" s="23" t="s">
         <v>205</v>
       </c>
       <c r="O144" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A145" s="59">
+      <c r="A145" s="6">
         <v>144</v>
       </c>
       <c r="B145" s="7">
@@ -7101,21 +7131,19 @@
       <c r="C145" s="7">
         <v>45254</v>
       </c>
-      <c r="D145" s="17"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="G145" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="H145" s="24" t="s">
-        <v>228</v>
-      </c>
+      <c r="D145" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E145" s="18">
+        <v>9007337237</v>
+      </c>
+      <c r="F145" s="8"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
       <c r="I145" s="15"/>
       <c r="J145" s="15"/>
       <c r="K145" s="17" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L145" s="17"/>
       <c r="M145" s="15"/>
@@ -7123,11 +7151,11 @@
         <v>205</v>
       </c>
       <c r="O145" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A146" s="59">
+      <c r="A146" s="6">
         <v>145</v>
       </c>
       <c r="B146" s="7">
@@ -7137,10 +7165,10 @@
         <v>45254</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E146" s="18">
-        <v>9007337237</v>
+        <v>7890924561</v>
       </c>
       <c r="F146" s="8"/>
       <c r="G146" s="24"/>
@@ -7148,7 +7176,7 @@
       <c r="I146" s="15"/>
       <c r="J146" s="15"/>
       <c r="K146" s="17" t="s">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="L146" s="17"/>
       <c r="M146" s="15"/>
@@ -7156,11 +7184,11 @@
         <v>205</v>
       </c>
       <c r="O146" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A147" s="59">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="6">
         <v>146</v>
       </c>
       <c r="B147" s="7">
@@ -7169,65 +7197,67 @@
       <c r="C147" s="7">
         <v>45254</v>
       </c>
-      <c r="D147" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E147" s="18">
-        <v>7890924561</v>
-      </c>
-      <c r="F147" s="8"/>
-      <c r="G147" s="24"/>
-      <c r="H147" s="24"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G147" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="H147" s="24" t="s">
+        <v>218</v>
+      </c>
       <c r="I147" s="15"/>
       <c r="J147" s="15"/>
-      <c r="K147" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L147" s="17"/>
+      <c r="K147" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="L147" s="25"/>
       <c r="M147" s="15"/>
       <c r="N147" s="23" t="s">
         <v>205</v>
       </c>
       <c r="O147" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="59">
+      <c r="A148" s="37">
         <v>147</v>
       </c>
-      <c r="B148" s="7">
-        <v>45254</v>
-      </c>
-      <c r="C148" s="7">
-        <v>45254</v>
-      </c>
-      <c r="D148" s="17"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G148" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="H148" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="I148" s="15"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="L148" s="25"/>
-      <c r="M148" s="15"/>
-      <c r="N148" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="O148" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="38">
+        <v>45262</v>
+      </c>
+      <c r="C148" s="38">
+        <v>45262</v>
+      </c>
+      <c r="D148" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="E148" s="43"/>
+      <c r="F148" s="40">
+        <v>7596961155</v>
+      </c>
+      <c r="G148" s="53"/>
+      <c r="H148" s="54"/>
+      <c r="I148" s="39"/>
+      <c r="J148" s="39"/>
+      <c r="K148" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="L148" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="M148" s="39"/>
+      <c r="N148" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="O148" s="39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="37">
         <v>148</v>
       </c>
@@ -7238,22 +7268,22 @@
         <v>45262</v>
       </c>
       <c r="D149" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="E149" s="43"/>
-      <c r="F149" s="40">
-        <v>7596961155</v>
-      </c>
-      <c r="G149" s="56"/>
-      <c r="H149" s="57"/>
+        <v>288</v>
+      </c>
+      <c r="E149" s="43">
+        <v>8335865511</v>
+      </c>
+      <c r="F149" s="39"/>
+      <c r="G149" s="53"/>
+      <c r="H149" s="54"/>
       <c r="I149" s="39"/>
-      <c r="J149" s="39"/>
+      <c r="J149" s="39" t="s">
+        <v>208</v>
+      </c>
       <c r="K149" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L149" s="40" t="s">
-        <v>302</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="L149" s="40"/>
       <c r="M149" s="39"/>
       <c r="N149" s="41" t="s">
         <v>205</v>
@@ -7267,102 +7297,102 @@
         <v>149</v>
       </c>
       <c r="B150" s="38">
-        <v>45262</v>
+        <v>45263</v>
       </c>
       <c r="C150" s="38">
-        <v>45262</v>
+        <v>45263</v>
       </c>
       <c r="D150" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="E150" s="43">
-        <v>8335865511</v>
-      </c>
-      <c r="F150" s="39"/>
-      <c r="G150" s="56"/>
-      <c r="H150" s="57"/>
+        <v>254</v>
+      </c>
+      <c r="E150" s="43"/>
+      <c r="F150" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G150" s="55">
+        <v>8777380801</v>
+      </c>
+      <c r="H150" s="54"/>
       <c r="I150" s="39"/>
-      <c r="J150" s="39" t="s">
-        <v>208</v>
-      </c>
+      <c r="J150" s="39"/>
       <c r="K150" s="40" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="L150" s="40"/>
       <c r="M150" s="39"/>
       <c r="N150" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O150" s="39" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="37">
         <v>150</v>
       </c>
-      <c r="B151" s="38">
-        <v>45263</v>
-      </c>
-      <c r="C151" s="38">
-        <v>45263</v>
-      </c>
-      <c r="D151" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="E151" s="43"/>
-      <c r="F151" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="G151" s="58">
-        <v>8777380801</v>
-      </c>
-      <c r="H151" s="57"/>
-      <c r="I151" s="39"/>
-      <c r="J151" s="39"/>
-      <c r="K151" s="40" t="s">
+      <c r="B151" s="59">
+        <v>45264</v>
+      </c>
+      <c r="C151" s="59">
+        <v>45264</v>
+      </c>
+      <c r="D151" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="E151" s="61"/>
+      <c r="F151" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="L151" s="40"/>
+      <c r="G151" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="H151" s="63"/>
+      <c r="I151" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="J151" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="K151" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="L151" s="60"/>
       <c r="M151" s="39"/>
       <c r="N151" s="41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O151" s="39" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="37">
         <v>151</v>
       </c>
-      <c r="B152" s="64">
+      <c r="B152" s="38">
         <v>45264</v>
       </c>
-      <c r="C152" s="64">
+      <c r="C152" s="38">
         <v>45264</v>
       </c>
-      <c r="D152" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="E152" s="66"/>
-      <c r="F152" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="G152" s="68" t="s">
-        <v>264</v>
-      </c>
-      <c r="H152" s="68"/>
-      <c r="I152" s="67" t="s">
-        <v>261</v>
-      </c>
-      <c r="J152" s="67" t="s">
-        <v>209</v>
-      </c>
-      <c r="K152" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="L152" s="65"/>
+      <c r="D152" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="E152" s="43">
+        <v>8100040475</v>
+      </c>
+      <c r="F152" s="39"/>
+      <c r="G152" s="53"/>
+      <c r="H152" s="54"/>
+      <c r="I152" s="39"/>
+      <c r="J152" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="K152" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="L152" s="40"/>
       <c r="M152" s="39"/>
       <c r="N152" s="41" t="s">
         <v>205</v>
@@ -7381,21 +7411,23 @@
       <c r="C153" s="38">
         <v>45264</v>
       </c>
-      <c r="D153" s="40" t="s">
+      <c r="D153" s="40"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="G153" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="E153" s="43">
-        <v>8100040475</v>
-      </c>
-      <c r="F153" s="39"/>
-      <c r="G153" s="56"/>
-      <c r="H153" s="57"/>
+      <c r="H153" s="54" t="s">
+        <v>269</v>
+      </c>
       <c r="I153" s="39"/>
       <c r="J153" s="39" t="s">
         <v>208</v>
       </c>
       <c r="K153" s="40" t="s">
-        <v>267</v>
+        <v>39</v>
       </c>
       <c r="L153" s="40"/>
       <c r="M153" s="39"/>
@@ -7416,23 +7448,21 @@
       <c r="C154" s="38">
         <v>45264</v>
       </c>
-      <c r="D154" s="40"/>
-      <c r="E154" s="43"/>
-      <c r="F154" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="G154" s="56" t="s">
-        <v>270</v>
-      </c>
-      <c r="H154" s="57" t="s">
-        <v>271</v>
-      </c>
+      <c r="D154" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="E154" s="43">
+        <v>6290555078</v>
+      </c>
+      <c r="F154" s="39"/>
+      <c r="G154" s="53"/>
+      <c r="H154" s="54"/>
       <c r="I154" s="39"/>
       <c r="J154" s="39" t="s">
         <v>208</v>
       </c>
       <c r="K154" s="40" t="s">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="L154" s="40"/>
       <c r="M154" s="39"/>
@@ -7453,15 +7483,15 @@
       <c r="C155" s="38">
         <v>45264</v>
       </c>
-      <c r="D155" s="40" t="s">
+      <c r="D155" s="40"/>
+      <c r="E155" s="42"/>
+      <c r="F155" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="E155" s="43">
-        <v>6290555078</v>
-      </c>
-      <c r="F155" s="39"/>
-      <c r="G155" s="56"/>
-      <c r="H155" s="57"/>
+      <c r="G155" s="55">
+        <v>9430501357</v>
+      </c>
+      <c r="H155" s="54"/>
       <c r="I155" s="39"/>
       <c r="J155" s="39" t="s">
         <v>208</v>
@@ -7475,7 +7505,7 @@
         <v>205</v>
       </c>
       <c r="O155" s="39" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -7483,34 +7513,32 @@
         <v>155</v>
       </c>
       <c r="B156" s="38">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="C156" s="38">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="D156" s="40"/>
-      <c r="E156" s="42"/>
-      <c r="F156" s="40" t="s">
+      <c r="E156" s="43"/>
+      <c r="F156" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="G156" s="58">
-        <v>9430501357</v>
-      </c>
-      <c r="H156" s="57"/>
+      <c r="G156" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="H156" s="54"/>
       <c r="I156" s="39"/>
       <c r="J156" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="K156" s="40" t="s">
-        <v>287</v>
-      </c>
+      <c r="K156" s="40"/>
       <c r="L156" s="40"/>
       <c r="M156" s="39"/>
       <c r="N156" s="41" t="s">
         <v>205</v>
       </c>
       <c r="O156" s="39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
@@ -7523,27 +7551,31 @@
       <c r="C157" s="38">
         <v>45265</v>
       </c>
-      <c r="D157" s="40"/>
+      <c r="D157" s="40" t="s">
+        <v>290</v>
+      </c>
       <c r="E157" s="43"/>
       <c r="F157" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="G157" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="H157" s="57"/>
+        <v>291</v>
+      </c>
+      <c r="G157" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="H157" s="54"/>
       <c r="I157" s="39"/>
       <c r="J157" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="K157" s="40"/>
+      <c r="K157" s="40" t="s">
+        <v>293</v>
+      </c>
       <c r="L157" s="40"/>
       <c r="M157" s="39"/>
       <c r="N157" s="41" t="s">
         <v>205</v>
       </c>
       <c r="O157" s="39" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
@@ -7551,36 +7583,32 @@
         <v>157</v>
       </c>
       <c r="B158" s="38">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="C158" s="38">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="D158" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="E158" s="43"/>
-      <c r="F158" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="G158" s="56" t="s">
-        <v>294</v>
-      </c>
-      <c r="H158" s="57"/>
+        <v>299</v>
+      </c>
+      <c r="E158" s="43">
+        <v>7250007254</v>
+      </c>
+      <c r="F158" s="39"/>
+      <c r="G158" s="53"/>
+      <c r="H158" s="54"/>
       <c r="I158" s="39"/>
       <c r="J158" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="K158" s="40" t="s">
-        <v>295</v>
-      </c>
+      <c r="K158" s="40"/>
       <c r="L158" s="40"/>
       <c r="M158" s="39"/>
       <c r="N158" s="41" t="s">
         <v>205</v>
       </c>
       <c r="O158" s="39" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
@@ -7588,25 +7616,27 @@
         <v>158</v>
       </c>
       <c r="B159" s="38">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C159" s="38">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="D159" s="40" t="s">
         <v>301</v>
       </c>
       <c r="E159" s="43">
-        <v>7250007254</v>
+        <v>9831179321</v>
       </c>
       <c r="F159" s="39"/>
-      <c r="G159" s="56"/>
-      <c r="H159" s="57"/>
+      <c r="G159" s="53"/>
+      <c r="H159" s="54"/>
       <c r="I159" s="39"/>
       <c r="J159" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="K159" s="40"/>
+      <c r="K159" s="40" t="s">
+        <v>302</v>
+      </c>
       <c r="L159" s="40"/>
       <c r="M159" s="39"/>
       <c r="N159" s="41" t="s">
@@ -7617,56 +7647,72 @@
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A160" s="37">
+      <c r="A160" s="6">
         <v>159</v>
       </c>
-      <c r="B160" s="38">
-        <v>45267</v>
-      </c>
-      <c r="C160" s="38">
-        <v>45267</v>
-      </c>
-      <c r="D160" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="E160" s="43">
-        <v>9831179321</v>
-      </c>
-      <c r="F160" s="39"/>
-      <c r="G160" s="56"/>
-      <c r="H160" s="57"/>
-      <c r="I160" s="39"/>
-      <c r="J160" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="K160" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="L160" s="40"/>
-      <c r="M160" s="39"/>
-      <c r="N160" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="O160" s="39" t="s">
-        <v>252</v>
+      <c r="B160" s="20">
+        <v>45268</v>
+      </c>
+      <c r="C160" s="15"/>
+      <c r="D160" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="E160" s="18">
+        <v>8240930263</v>
+      </c>
+      <c r="F160" s="15"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K160" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="L160" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="M160" s="15"/>
+      <c r="N160" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="O160" s="15" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A161" s="23"/>
-      <c r="B161" s="15"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="18"/>
+      <c r="A161" s="23">
+        <v>160</v>
+      </c>
+      <c r="B161" s="20">
+        <v>45268</v>
+      </c>
+      <c r="C161" s="20">
+        <v>45268</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E161" s="18">
+        <v>7439626395</v>
+      </c>
       <c r="F161" s="15"/>
       <c r="G161" s="22"/>
       <c r="H161" s="19"/>
       <c r="I161" s="15"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="17"/>
+      <c r="J161" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="K161" s="17" t="s">
+        <v>289</v>
+      </c>
       <c r="L161" s="17"/>
       <c r="M161" s="15"/>
       <c r="N161" s="16"/>
-      <c r="O161" s="15"/>
+      <c r="O161" s="15" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
@@ -13329,31 +13375,17 @@
       <c r="N494" s="16"/>
       <c r="O494" s="15"/>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A495" s="23"/>
-      <c r="B495" s="15"/>
-      <c r="C495" s="15"/>
-      <c r="D495" s="17"/>
-      <c r="E495" s="18"/>
-      <c r="F495" s="15"/>
-      <c r="G495" s="22"/>
-      <c r="H495" s="19"/>
-      <c r="I495" s="15"/>
-      <c r="J495" s="15"/>
-      <c r="K495" s="17"/>
-      <c r="L495" s="17"/>
-      <c r="M495" s="15"/>
-      <c r="N495" s="16"/>
-      <c r="O495" s="15"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O160" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <dataValidations count="2">
+  <autoFilter ref="A1:O159" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error Information" error="Select the valid status." sqref="O1:O1048576" xr:uid="{B02E6DAE-DC3E-4C60-9A95-78F36C6B478A}">
       <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error Information" error="Enter either Y or N." sqref="N1:N1048576" xr:uid="{9FB73836-CAF0-4841-AF63-9BEE8ED48298}">
       <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{501632AC-285A-4B17-9EDF-C808885B7738}">
+      <formula1>"Rahul Dutta,Just Dial,Anirban Chakraborty"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13378,24 +13410,24 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
+        <v>251</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -13406,10 +13438,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C4" s="45" t="s">
         <v>3</v>
@@ -13420,10 +13452,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -13431,7 +13463,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>206</v>
@@ -13442,10 +13474,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -13453,10 +13485,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -13464,10 +13496,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -13475,10 +13507,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -13486,10 +13518,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
